--- a/lesions/tests/11-27 lesion detect/data.xlsx
+++ b/lesions/tests/11-27 lesion detect/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="12810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="12810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="40">
   <si>
     <t># total</t>
   </si>
@@ -97,9 +97,6 @@
     <t>type II error</t>
   </si>
   <si>
-    <t>Expected</t>
-  </si>
-  <si>
     <t>False detect</t>
   </si>
   <si>
@@ -128,6 +125,27 @@
   </si>
   <si>
     <t>Precision</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TP + TN / (TP + TN + FP + TN)</t>
+  </si>
+  <si>
+    <t>TP / (TP + FN)</t>
+  </si>
+  <si>
+    <t>Expected / Counted</t>
+  </si>
+  <si>
+    <t>PPV</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Correct Rejection</t>
   </si>
 </sst>
 </file>
@@ -158,18 +176,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -214,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,9 +262,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -658,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G12"/>
+    <sheetView showGridLines="0" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,7 +2686,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="14">
+      <c r="B100" s="13">
         <v>98</v>
       </c>
       <c r="C100" s="8">
@@ -2696,11 +2705,11 @@
         <v>8</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="14">
+      <c r="B101" s="13">
         <v>99</v>
       </c>
       <c r="C101" s="8">
@@ -2720,7 +2729,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="14">
+      <c r="B102" s="13">
         <v>100</v>
       </c>
       <c r="C102" s="8">
@@ -2740,7 +2749,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="14">
+      <c r="B103" s="13">
         <v>101</v>
       </c>
       <c r="C103" s="8">
@@ -2960,7 +2969,7 @@
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="15">
+      <c r="B114" s="14">
         <v>112</v>
       </c>
       <c r="C114" s="8">
@@ -3590,131 +3599,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:G16"/>
+  <dimension ref="B4:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="4.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="9" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D7" s="1">
         <f>SUM(Sheet1!C2:C144)</f>
         <v>733</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9">
+      <c r="D8" s="9">
         <f>SUM(Sheet1!C2:C144)-SUM(Sheet1!F2:F144)</f>
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>718</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM(Sheet1!F2:F144)</f>
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9">
+      <c r="D11" s="9">
         <f>SUM(Sheet1!E2:E144)</f>
         <v>69</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="9">
-        <f>SUM(Sheet1!F2:F144)</f>
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9">
         <f>SUM(Sheet1!C2:C144)+SUM(Sheet1!E2:E144)-SUM(Sheet1!F2:F144)</f>
         <v>760</v>
       </c>
-      <c r="G11" s="1" t="s">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="15">
+        <f>(D8 + D9)/(D8 + D9 + D11 + D10)</f>
+        <v>0.92697368421052628</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="15">
+        <f>D8/(D8 +D10)</f>
+        <v>0.94270122783083221</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="15">
+        <f>(D8/(D12))</f>
+        <v>0.90921052631578947</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="16">
-        <f>(E8/(E11))</f>
-        <v>0.90921052631578947</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="1" t="s">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="15">
+        <f>(D10/(D7))</f>
+        <v>5.7298772169167803E-2</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="16">
-        <f>(E10/(E6))</f>
-        <v>5.7298772169167803E-2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
